--- a/feature.xlsx
+++ b/feature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户-商品特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户是否购买了该商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,60 @@
   <si>
     <t>最后一次的操作数的dista
 nce值，初始化值为-1，即没有操作，值就为-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-商品特征(UTPair)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名为utp_h[0,1,2..len-1]，
+在Contants类中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utp_interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utp_atdup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDupBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasActionAfterBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户对该商品的平均购买间隔，
+即所有买行为的间隔，均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utp_la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utp_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注(csv列名和其他注释)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,85 +571,122 @@
     <col min="1" max="29" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/feature.xlsx
+++ b/feature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,34 @@
   </si>
   <si>
     <t>备注(csv列名和其他注释)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户特征(User)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_avgBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slideWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户对所有商品的平均购买间隔，
+即所有买行为的间隔，均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户行为的滑动窗口，设窗口大小为N
+第i天，i的前N天操作的商品集合P中，
+在第i天买的个数/前N天的操作数
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_slide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,9 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,18 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="29" width="25.625" customWidth="1"/>
+    <col min="1" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="6" width="25.625" style="2" customWidth="1"/>
+    <col min="7" max="29" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -581,8 +615,17 @@
       <c r="C1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -592,8 +635,17 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -603,8 +655,17 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -615,7 +676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -626,7 +687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -637,7 +698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -648,7 +709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -659,7 +720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -670,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -681,12 +742,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
